--- a/user.xlsx
+++ b/user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -32,28 +32,37 @@
     <t>移动电话</t>
   </si>
   <si>
-    <t>李四</t>
-  </si>
-  <si>
-    <t>监察室</t>
-  </si>
-  <si>
-    <t>科长</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>信息中心</t>
-  </si>
-  <si>
-    <t>副主任科员</t>
-  </si>
-  <si>
-    <t>许远帆</t>
-  </si>
-  <si>
-    <t>科员</t>
+    <t>何泉章</t>
+  </si>
+  <si>
+    <t>局长室</t>
+  </si>
+  <si>
+    <t>副局长</t>
+  </si>
+  <si>
+    <t>13702686118</t>
+  </si>
+  <si>
+    <t>黄晓风</t>
+  </si>
+  <si>
+    <t>13822513388</t>
+  </si>
+  <si>
+    <t>叶增潮</t>
+  </si>
+  <si>
+    <t>13809737038</t>
+  </si>
+  <si>
+    <t>赵士劲</t>
+  </si>
+  <si>
+    <t>局长</t>
+  </si>
+  <si>
+    <t>13828211678</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,27 +437,27 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>23456</v>
-      </c>
-      <c r="E2">
-        <v>65432</v>
+        <v>6686088</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>6682668</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3">
-        <v>12345</v>
-      </c>
-      <c r="E3">
-        <v>54321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,16 +465,33 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6686808</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>123456</v>
-      </c>
-      <c r="E4">
-        <v>1234567890</v>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>6680808</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
